--- a/Data/Transitions/19171973Translation.xlsx
+++ b/Data/Transitions/19171973Translation.xlsx
@@ -25,10 +25,10 @@
     <t>Rel</t>
   </si>
   <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 975.0: 8.53320505597968e-06, 152.0: 1.7512315030382182e-06, 166.0: 0.0012804097311139564, 893.0: 2.695599433924119e-06}</t>
-  </si>
-  <si>
-    <t>{5.0: 0.9694199207584238, 403.0: 0.005887612687734961}</t>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 975.0: 8.707294875854653e-06, 152.0: 1.7174174533209238e-06, 166.0: 0.0012804097311139564, 893.0: 2.8870568908995634e-06}</t>
+  </si>
+  <si>
+    <t>{5.0: 0.9694640710996556, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
@@ -37,13 +37,13 @@
     <t>{9.0: 1.0, 208.0: 0.00029175784099197665}</t>
   </si>
   <si>
-    <t>{10.0: 0.9834797394932683}</t>
+    <t>{10.0: 0.9833918954386325}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.968121687448885, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.802917100041169e-05}</t>
+    <t>{14.0: 0.9681719108492928, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.840905823676253e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -52,13 +52,13 @@
     <t>{16.0: 0.9941305098400276}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
   </si>
   <si>
-    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.0003786651141143844, 477.0: 0.00025028495136528975}</t>
+    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.00037866993652094233, 477.0: 0.0002502803258980169}</t>
   </si>
   <si>
     <t>{34.0: 1.0, 995.0: 1.0}</t>
@@ -73,19 +73,19 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 90.0: 0.020726036957175703, 246.0: 0.01620924641904141, 681.0: 0.009117688454576946, 741.0: 0.00817597294805933, 789.0: 0.003083001037889671}</t>
+    <t>{46.0: 0.9985255086994986, 90.0: 0.020748110743117883, 246.0: 0.01620029946546196, 681.0: 0.009122520122153777, 741.0: 0.008183965540227347, 789.0: 0.003089266097670683}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927723425900513}</t>
+    <t>{49.0: 0.8862897962909823}</t>
   </si>
   <si>
     <t>{50.0: 0.989247311827957, 96.0: 0.989247311827957, 100.0: 0.989247311827957}</t>
@@ -100,7 +100,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.4776395175392409, 887.0: 0.17184021568530522, 210.0: 0.0007166887517041163, 82.0: 7.397259306884126e-07, 788.0: -1.4500769944503822e-07}</t>
+    <t>{834.0: 0.4776073061429195, 887.0: 0.1729009339692988, 210.0: 0.0007166887517041163, 82.0: 7.397259306884126e-07, 788.0: -1.2666322734806188e-07}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -115,37 +115,37 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9823489268718721}</t>
+    <t>{71.0: 0.9826600348172096}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8433678599502096, 888.0: 0.006491762867531044, 11.0: 1.0}</t>
+    <t>{73.0: 0.843363874567225, 888.0: 0.0064918045262522235, 11.0: 1.0}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.13643574699810795}</t>
+    <t>{75.0: 1.0, 917.0: 0.13677505342411111}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 0.9559682317215604, 85.0: 0.0008874153926401118}</t>
+    <t>{77.0: 0.9559682317215604, 85.0: 0.0008843369396129144}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7702550409471253, 172.0: 0.0016235303668609249}</t>
-  </si>
-  <si>
-    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001841720030388352, 860.0: 1.0}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7683130360947987, 172.0: 0.001613899422967784}</t>
+  </si>
+  <si>
+    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001842445762345899, 860.0: 1.0}</t>
   </si>
   <si>
     <t>{83.0: 0.9811509725848419, 439.0: 0.008687558175612783}</t>
@@ -154,10 +154,10 @@
     <t>{84.0: 0.6735799921564724}</t>
   </si>
   <si>
-    <t>{85.0: 0.9886598798546655, 178.0: 0.008694216268385058, 14.0: 0.0002688641098621682, 492.0: 0.0026003154391696127, 97.0: 1.3219344149476795e-05, 696.0: 3.435220455010528e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.43162153249347684, 165.0: 0.0002494072058394017, 433.0: 5.3662174179520615e-05}</t>
+    <t>{85.0: 0.9886248980275637, 178.0: 0.008740265076213482, 14.0: 0.00026984893800464113, 492.0: 0.0026000821520827133, 97.0: 1.317900243106368e-05, 696.0: 3.337415196969153e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.42961421750484796, 165.0: 0.0002502066864647037, 433.0: 5.3992462724434386e-05}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -166,22 +166,22 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9452080012612006, 420.0: 0.0014991437911200875, 212.0: 1.4030499998860047e-06, 681.0: 9.006419171195067e-09}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9631975404793867, 92.0: 0.14327353129413814, 858.0: 0.004867508316901873, 543.0: 9.095364270300777e-05}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.8567263079604118, 91.0: 0.036469355466693706, 858.0: 0.10635135141719504, 543.0: 0.001987267856162264}</t>
+    <t>{90.0: 0.945186179595832, 420.0: 0.0014966934602642376, 212.0: 1.3973902580550808e-06, 681.0: 8.982581474534481e-09}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9632015604161517, 92.0: 0.14265477256351486, 858.0: 0.00453890631355781, 543.0: 8.483780111199807e-05}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.8573450782432097, 91.0: 0.036469507672753906, 858.0: 0.09917164778675883, 543.0: 0.001853641372978079}</t>
   </si>
   <si>
     <t>{95.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9710404310226443}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.3294469559252}</t>
+    <t>{97.0: 0.9710736238304881}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.33258017449224603}</t>
   </si>
   <si>
     <t>{99.0: 0.9979395604395604, 230.0: 0.004861357952258186}</t>
@@ -199,13 +199,13 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013420294243366673, 543.0: -0.00010821817426363594, 86.0: -1.4205619924083042e-05, 505.0: 0.009292341386410228}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9907457807451502, 144.0: 0.008431202051941708}</t>
-  </si>
-  <si>
-    <t>{109.0: 1.0, 110.0: 0.9431251500439995, 914.0: 0.7690138754556746}</t>
+    <t>{107.0: 0.9985693012934684, 543.0: 0.007821117828337358, 86.0: 0.0010611279267070323, 505.0: 0.009292341386410228}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9907507203229236, 144.0: 0.008431244087526484}</t>
+  </si>
+  <si>
+    <t>{109.0: 1.0, 110.0: 0.9431027384420663, 914.0: 0.7690138754556746}</t>
   </si>
   <si>
     <t>{139.0: 0.6022249604757921}</t>
@@ -214,13 +214,13 @@
     <t>{140.0: 1.0, 762.0: 0.006328398689117414, 141.0: 0.7201640308167709}</t>
   </si>
   <si>
-    <t>{142.0: 0.6799263461575976, 44.0: 0.0200443155826856}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9904871046784335}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9974893393037774, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005095642723967638, 942.0: 0.031023147610285164, 152.0: 0.0003658764490503502}</t>
+    <t>{142.0: 0.6798894445619768, 44.0: 0.019826992689839017}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.990491397943019}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9974893393037774, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.0050954218128254096, 942.0: 0.031022815778396627, 152.0: 0.0003658795242960575}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -238,10 +238,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054, 975.0: 0.0007626722792535179}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00015153414756510875}</t>
+    <t>{152.0: 0.9280286630608138, 975.0: 0.0007626456248778554}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.0001527955294161644}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -250,10 +250,10 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9610080910935691, 914.0: 0.224353720584676, 110.0: 0.027553839425323783}</t>
-  </si>
-  <si>
-    <t>{166.0: 0.998719590268886, 893.0: 0.002102567558460813}</t>
+    <t>{165.0: 0.9608848539888842, 914.0: 0.224353720584676, 110.0: 0.027564697048357754}</t>
+  </si>
+  <si>
+    <t>{166.0: 0.998719590268886, 893.0: 0.0022519043749016595}</t>
   </si>
   <si>
     <t>{167.0: 0.9994659939545818, 596.0: 0.9994659939545818, 276.0: 0.002476227037285316}</t>
@@ -265,16 +265,16 @@
     <t>{170.0: 0.5220346929207689}</t>
   </si>
   <si>
-    <t>{171.0: 0.6765676889513836}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411903957421226, 81.0: 0.01441632528870922, 97.0: 0.0012500520481753916}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.0018259753523043798, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.004820511450036743, 212.0: 4.511520929137317e-06, 681.0: 2.8960228495585646e-08, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9026351080079558, 502.0: 0.9073523968971762, 534.0: 0.00037145743150143664, 298.0: 0.00017273254212841487, 857.0: 0.0003214470785624314, 204.0: 0.26835711298985004}</t>
+    <t>{171.0: 0.6794159374403735}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9405133606178667, 81.0: 0.0143799903907803, 97.0: 0.0012500947783605665}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0018411749109971294, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0048126323873231005, 212.0: 4.4933219741992875e-06, 681.0: 2.8883578149984707e-08, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.90266823408531, 502.0: 0.907349044969305, 534.0: 0.0003716397406370986, 298.0: 0.00017483289999846807, 857.0: 0.00032149940825453016, 204.0: 0.26835673426855067}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751, 846.0: 0.0003843689942344651}</t>
@@ -283,43 +283,43 @@
     <t>{176.0: 1.0, 607.0: 0.0006079027355623101, 276.0: 1.1784486489528159e-07}</t>
   </si>
   <si>
-    <t>{177.0: 1.0, 562.0: 0.0005025757004648825, 211.0: 1.4761722271806034e-05}</t>
-  </si>
-  <si>
-    <t>{178.0: 0.9759748680013169, 14.0: 0.030181514472696975, 681.0: 0.010227277857796856, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.531692820600847, 410.0: 0.018224940199432906, 850.0: 0.001415488374311739, 277.0: 4.083350519432375e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.46830717939915295, 410.0: 0.016052258012191532, 850.0: 0.0012467412429927535, 277.0: 3.596554796606926e-05}</t>
+    <t>{177.0: 1.0, 562.0: 0.0005025757004648825, 211.0: 1.4839699675110984e-05}</t>
+  </si>
+  <si>
+    <t>{178.0: 0.9759282428739054, 14.0: 0.030131031222951257, 681.0: 0.010311688422776206, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.5315600531459954, 410.0: 0.018065066593618166, 850.0: 0.0014179661304327988, 277.0: 4.109819104161413e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.46843994685400464, 410.0: 0.015919929996515952, 850.0: 0.0012495897215178515, 277.0: 3.621798574476737e-05}</t>
   </si>
   <si>
     <t>{181.0: 0.9954311821816105}</t>
   </si>
   <si>
-    <t>{182.0: 0.6468848045152845, 277.0: 0.001693484250973502}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.3531151954847155, 277.0: 0.0024132920808748533}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9918073154221901, 171.0: 0.003713599073037713, 593.0: 0.0009491797243270216, 778.0: 0.004088166085144559, 420.0: 4.639583461235061e-06, 212.0: 4.3421902644130816e-09, 681.0: 2.7873265846237817e-11}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346, 543.0: 0.008551848964568199}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.27479290927306305, 307.0: 0.9834669117201308}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.6860086858877767, 857.0: 0.004685400347639181, 174.0: 0.0025351527709197635, 502.0: 0.0025484018101966962, 534.0: 1.04328020081987e-06, 298.0: 4.851388771829226e-07}</t>
+    <t>{182.0: 0.6458285932967373, 277.0: 0.0016946080556379567}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.35417140670326264, 277.0: 0.002412735471817341}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917910059913613, 171.0: 0.0036853674878954555, 593.0: 0.0009488962327097717, 778.0: 0.004072641875622815, 420.0: 4.632000122945102e-06, 212.0: 4.324674369841023e-09, 681.0: 2.779949241380559e-11}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353, 543.0: 0.006078068845796023}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.27481355893620624, 307.0: 0.9834669117201308}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.685997629403978, 857.0: 0.004683666862058774, 174.0: 0.0025352458092539132, 502.0: 0.002548392395928234, 534.0: 1.0437922366429144e-06, 298.0: 4.910379697696709e-07}</t>
   </si>
   <si>
     <t>{205.0: 1.0, 206.0: 0.01639538570799976, 578.0: 0.0029847546889122914}</t>
@@ -331,16 +331,16 @@
     <t>{208.0: 0.999708242159008, 688.0: 1.0}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
-  </si>
-  <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.00829306274851835}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
+  </si>
+  <si>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.00830192132519551}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -349,13 +349,13 @@
     <t>{214.0: 1.0, 99.0: 0.0020604395604395605, 230.0: 1.0037215317807679e-05}</t>
   </si>
   <si>
-    <t>{265.0: 0.26372514252777124}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{265.0: 0.19626745878340957}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -364,22 +364,22 @@
     <t>{221.0: 1.0, 999.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{627.0: 1.0, 626.0: 0.31248670495639225}</t>
   </si>
   <si>
-    <t>{226.0: 0.7384353461125667, 265.0: 0.009059553658887049}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.6609982656151687, 297.0: 4.127455836222553e-05, 686.0: 6.520786798273537e-05}</t>
-  </si>
-  <si>
-    <t>{230.0: 0.995128604832424, 581.0: 0.0012232932029192095, 303.0: 0.0001474394666408979}</t>
+    <t>{226.0: 0.7384353461125667, 265.0: 0.006742230025165162}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.6206265284284248, 297.0: 4.15092773234818e-05, 686.0: 6.532095759883434e-05}</t>
+  </si>
+  <si>
+    <t>{230.0: 0.995128604832424, 581.0: 0.0012236121765584547, 303.0: 0.00014770204805967065}</t>
   </si>
   <si>
     <t>{231.0: 1.0}</t>
@@ -391,22 +391,22 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10722765740994868}</t>
+    <t>{49.0: 0.1137102037090177}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.002564069085859641}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025205205174975535}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986, 738.0: 0.007169576059850374, 228.0: 0.007169576059850374}</t>
@@ -415,10 +415,10 @@
     <t>{244.0: 0.9799247176913425, 565.0: 0.00771386760273191, 564.0: 0.00018847476794044198, 84.0: 6.004536785832098e-05}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674, 543.0: 0.006857913135439756}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.6404429571061495, 46.0: 0.001474491300501327, 90.0: 3.0605488714081074e-05, 681.0: 1.3463804569664716e-05, 741.0: 1.2073202817571368e-05, 789.0: 1.1269301357269214e-05}</t>
+    <t>{858.0: 0.262525543590365, 543.0: 0.004906928743475354}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.6407009174209272, 46.0: 0.001474491300501327, 90.0: 3.0638084381449914e-05, 681.0: 1.3470939341632867e-05, 741.0: 1.2085005227742688e-05, 789.0: 1.127795583340998e-05}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -427,19 +427,19 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.8994204239565864, 600.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.29130547110880456, 303.0: 0.0008056245482620409}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.8985808107367719, 600.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2911206790471352, 303.0: 0.0008070593203871737}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9957911940720351}</t>
+    <t>{253.0: 0.9958347426403972}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -457,28 +457,28 @@
     <t>{259.0: 1.0}</t>
   </si>
   <si>
-    <t>{260.0: 1.0, 707.0: 0.05531438024386263}</t>
+    <t>{260.0: 1.0, 707.0: 0.05530363347034253}</t>
   </si>
   <si>
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9979662270430174, 595.0: 0.0017117774048765308}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.5219532671708194}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9979662270430174, 595.0: 0.0017292620441237876}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.5917282745489029}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -487,13 +487,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.39523576063596144, 921.0: 0.009641342074816815, 77.0: 0.026278906797477224, 85.0: 2.4394436572269415e-05}</t>
+    <t>{686.0: 0.3952431228545757, 921.0: 0.009641342074816815, 77.0: 0.026278906797477224, 85.0: 2.4309812023568202e-05}</t>
   </si>
   <si>
     <t>{276.0: 0.997329918159962, 167.0: 0.0005340060454181676, 596.0: 0.0005340060454181676}</t>
   </si>
   <si>
-    <t>{277.0: 0.6662360148119664}</t>
+    <t>{277.0: 0.6660823521023325}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -502,7 +502,7 @@
     <t>{280.0: 0.8135048231511254}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005040793935575995, 621.0: 0.04563312178906014}</t>
+    <t>{281.0: 1.0, 599.0: 0.005039313418414355, 621.0: 0.04563312178906014}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -511,25 +511,25 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.22981246236489283, 142.0: 0.003522217017690445, 788.0: 0.026298366265383358, 44.0: 3.616660946846924e-07}</t>
-  </si>
-  <si>
-    <t>{287.0: 1.0, 847.0: 1.0, 409.0: 0.8790940270012993, 750.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{288.0: 0.9978448275862069, 8.0: 1.0, 839.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{289.0: 1.0, 730.0: 0.046404895461499236}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.23223840299411974, 142.0: 0.0035226258372721515, 788.0: 0.026172626732387502, 44.0: 3.5774486716174825e-07}</t>
+  </si>
+  <si>
+    <t>{287.0: 1.0, 847.0: 1.0, 409.0: 0.8789792612630773, 750.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{288.0: 0.9978511952726296, 8.0: 1.0, 839.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{289.0: 1.0, 730.0: 0.047420531526836895}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -541,52 +541,52 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9985641467881747, 298.0: 0.5881367522717978, 476.0: 7.433689011226494e-05, 534.0: 4.9074576420880765e-05, 857.0: 0.09563419857543644}</t>
-  </si>
-  <si>
-    <t>{299.0: 0.9421714285714285, 443.0: 0.013607056815694891, 291.0: 0.0009316270461065804}</t>
+    <t>{297.0: 0.998555981419779, 298.0: 0.5865439809348431, 476.0: 7.508015578204456e-05, 534.0: 4.886792372761907e-05, 857.0: 0.09570057077975534}</t>
+  </si>
+  <si>
+    <t>{299.0: 0.9421714285714285, 443.0: 0.013609507813291451, 291.0: 0.0009349173197625517}</t>
   </si>
   <si>
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.946238913745183e-06, 942.0: 1.1849036593952016e-05, 152.0: 1.3974350662682385e-07}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.8658669368456603, 144.0: 0.000950354505269718, 840.0: 0.10136869118905047}</t>
+    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.946154538547632e-06, 942.0: 1.1848909853485841e-05, 152.0: 1.3974468119168037e-07}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.8657214311427002, 144.0: 0.0009462863434627049, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 0.996803409696324}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628, 732.0: 0.0014961101137043686}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.316551436824712, 909.0: 0.4014170354267451, 44.0: 7.544287133983491e-05}</t>
+    <t>{305.0: 0.7921536463673023, 732.0: 0.0014961101137043686}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.3165879296007511, 909.0: 0.40143536078664743, 44.0: 7.462491060794599e-05}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.019816749671968618, 426.0: 0.03955197759887994, 857.0: 5.0486552666831835e-06}</t>
+    <t>{309.0: 1.0, 204.0: 0.01982821514540354, 426.0: 0.039725786605730354, 857.0: 5.050535780260245e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
-  </si>
-  <si>
-    <t>{226.0: 0.2608672648665498, 5.0: 0.01582715129859224, 759.0: 0.003654342218400688}</t>
-  </si>
-  <si>
-    <t>{315.0: 0.9977799703996053, 217.0: 0.005354512670264527}</t>
+    <t>{311.0: 0.17636738590185097}</t>
+  </si>
+  <si>
+    <t>{226.0: 0.2608672648665498, 5.0: 0.01582787211535657, 759.0: 0.003654342218400688}</t>
+  </si>
+  <si>
+    <t>{315.0: 0.9977799703996053, 217.0: 0.00539249435108721}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009075383344384338}</t>
+    <t>{317.0: 1.0, 71.0: 0.008760009947774185}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -595,28 +595,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.6705530440747999, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{398.0: 1.0, 98.0: 0.6674198255077539, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
-  </si>
-  <si>
-    <t>{401.0: 0.9842657342657343, 16.0: 0.005869490159972379, 165.0: 0.0005256436981231063, 914.0: 0.0001227150119429378, 110.0: 1.5071155162217302e-05}</t>
-  </si>
-  <si>
-    <t>{402.0: 0.9631065512242976, 476.0: 0.014382932878232587, 141.0: 0.001092715870134727}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.9905853942022191, 782.0: 0.044733262807919, 930.0: 0.10324494606396221}</t>
+    <t>{400.0: 0.9375071729331006, 50.0: 0.010752688172043012, 96.0: 0.010752688172043012, 100.0: 0.010752688172043012}</t>
+  </si>
+  <si>
+    <t>{401.0: 0.9842657342657343, 16.0: 0.005869490159972379, 165.0: 0.0005255762909825703, 914.0: 0.0001227150119429378, 110.0: 1.5077093968744839e-05}</t>
+  </si>
+  <si>
+    <t>{402.0: 0.9631027328570206, 476.0: 0.014355866202532654, 141.0: 0.001092715870134727}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.9905029493177702, 782.0: 0.044733262807919, 930.0: 0.10356293822099828}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -625,10 +625,10 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9657228017883756, 77.0: 0.017752861480962393, 85.0: 1.6479797151044226e-05}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9660150034098659, 77.0: 0.017752861480962393, 85.0: 1.6422628567032743e-05}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -637,7 +637,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.026208939182337652}</t>
+    <t>{415.0: 1.0, 277.0: 0.02622581817276165}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -646,58 +646,58 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545, 922.0: 0.06848441752911817, 887.0: 0.0028364660922878294, 834.0: 1.3501349733811965e-06}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.8578764750705797, 212.0: 0.0008028873516867112, 681.0: 5.153871948347349e-06}</t>
+    <t>{418.0: 0.879367457019463, 922.0: 0.06856944170596174, 887.0: 0.0028329448076724853, 834.0: 1.418764392274871e-06}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8564742872285432, 212.0: 0.0007996485967383983, 681.0: 5.140230962535237e-06}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.9973904244554508}</t>
-  </si>
-  <si>
-    <t>{423.0: 0.9933648160267351, 202.0: 0.0002402943891510571, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 91.0: 4.674849362771424e-09, 92.0: 2.255934012411074e-12, 680.0: 8.329277927499078e-08, 477.0: 1.2265567663800832e-05, 207.0: 6.229748827025319e-06}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174, 434.0: 0.0002397507716904726}</t>
+    <t>{597.0: 0.9973572083490643}</t>
+  </si>
+  <si>
+    <t>{423.0: 0.9933774668066054, 202.0: 0.00024031139176103417, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 91.0: 4.616296670307187e-09, 92.0: 2.0938084682701493e-12, 680.0: 8.329277927499078e-08, 477.0: 1.2265456117012493e-05, 207.0: 6.229748827025319e-06}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514, 434.0: 0.00021743081720157614}</t>
   </si>
   <si>
     <t>{425.0: 1.0, 244.0: 0.020075282308657464, 565.0: 0.0003033439621543061, 436.0: 0.00754242614707731, 564.0: 0.0001531357489516091, 84.0: 4.878686138488579e-05, 567.0: 0.014299332697807437, 841.0: 0.0027063599458728013}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29759273185332574, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7024072681466742}</t>
-  </si>
-  <si>
-    <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0808137663009234e-05, 918.0: 6.570736109710267e-07}</t>
-  </si>
-  <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9854815631925835, 585.0: 0.2490008596890933}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.2308415575332725e-06, 172.0: 2.5943467283154615e-09}</t>
+    <t>{431.0: 0.2217269368149083, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7782730631850917}</t>
+  </si>
+  <si>
+    <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0808844077235574e-05, 918.0: 6.570736109710267e-07}</t>
+  </si>
+  <si>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9869660646445744, 585.0: 0.24896884611085154}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.2137022864894853e-06, 172.0: 2.549473102495131e-09}</t>
   </si>
   <si>
     <t>{436.0: 0.9924575738529227}</t>
@@ -712,31 +712,31 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9487360394186147, 291.0: 0.06495660052796527}</t>
+    <t>{443.0: 0.9489069323445342, 291.0: 0.06518601099043715}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875, 32.0: 1.0, 590.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.8274726965311221, 402.0: 0.035199312420877364, 141.0: 3.993623265383179e-05}</t>
+    <t>{476.0: 0.8259187805956957, 402.0: 0.035199172868402566, 141.0: 3.993623265383179e-05}</t>
   </si>
   <si>
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{481.0: 0.9754941963143856}</t>
+    <t>{481.0: 0.9754793465303014}</t>
   </si>
   <si>
     <t>{482.0: 1.0}</t>
@@ -754,25 +754,25 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
-  </si>
-  <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7572537191552514, 97.0: 0.027692600544453445, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243, 14.0: 0.0004676147517185394}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9885688283899184, 108.0: 0.008682397096544718, 144.0: 7.388680894618978e-05}</t>
-  </si>
-  <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.2463708207241241e-05}</t>
-  </si>
-  <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
+  </si>
+  <si>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7571857821997865, 97.0: 0.02765941663047021, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788, 14.0: 0.00046683465890533634}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9885931946910314, 108.0: 0.00867772554421567, 144.0: 7.384705424589442e-05}</t>
+  </si>
+  <si>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.2463708207241241e-05}</t>
+  </si>
+  <si>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 0.9913707268503154}</t>
@@ -781,16 +781,16 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.6683720830288906, 270.0: 0.9996682484918197, 479.0: 0.02116481274502622, 942.0: 0.0001947682154450266, 679.0: 1.0, 769.0: 0.5056044835868695}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.20266632173163954}</t>
+    <t>{499.0: 0.6690568665420652, 270.0: 0.9996682484918197, 479.0: 0.020537856992426304, 942.0: 0.00018921634081314062, 679.0: 1.0, 769.0: 0.5056044835868695}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.20213916684917463}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -802,10 +802,10 @@
     <t>{933.0: 0.18729847189120988}</t>
   </si>
   <si>
-    <t>{507.0: 0.7987576959287707}</t>
-  </si>
-  <si>
-    <t>{529.0: 0.9919806324708731, 530.0: 0.9919806324708731, 680.0: 0.0006968856833630753, 481.0: 1.2873523329373408e-05}</t>
+    <t>{507.0: 0.7976368788574122}</t>
+  </si>
+  <si>
+    <t>{529.0: 0.9919806324708731, 530.0: 0.9919806324708731, 680.0: 0.0006968856833630753, 481.0: 1.2873327357892935e-05}</t>
   </si>
   <si>
     <t>{531.0: 0.8678987719401994, 262.0: 0.019194950102852697, 442.0: 0.001823316747773528}</t>
@@ -817,16 +817,16 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.8952429010243315, 402.0: 0.0006615052106698433, 476.0: 9.87884988589353e-06, 141.0: 7.505267625444824e-07, 174.0: 0.08824746074011176, 502.0: 0.08870865348827549, 298.0: 1.688745329622459e-05, 857.0: 2.856322977005616e-05, 204.0: 0.025817451450404677}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.44850068491083017, 779.0: 0.9517781796262809}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267, 293.0: 0.035617916891527254}</t>
+    <t>{534.0: 0.8956822810061335, 402.0: 0.0006615025880422153, 476.0: 9.860259266830399e-06, 141.0: 7.505267625444824e-07, 174.0: 0.08825069936021956, 502.0: 0.08870832578207329, 298.0: 1.709279790007759e-05, 857.0: 2.85694055880084e-05, 204.0: 0.025817421182067726}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.4452228917993076, 779.0: 0.9517781796262809}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826, 293.0: 0.035617916891527254}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
@@ -838,13 +838,13 @@
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 1.0, 911.0: 0.012496045555204052}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.9732503562965729}</t>
-  </si>
-  <si>
-    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073645517864837}</t>
+    <t>{542.0: 1.0, 911.0: 0.012482224680044242}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.9734764334212167}</t>
+  </si>
+  <si>
+    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073338850958952}</t>
   </si>
   <si>
     <t>{545.0: 1.0, 280.0: 0.1864951768488746, 605.0: 1.0, 475.0: 0.017474965639112508, 974.0: 1.0}</t>
@@ -859,7 +859,7 @@
     <t>{561.0: 0.9727862364645743, 979.0: 0.0014455734215032422}</t>
   </si>
   <si>
-    <t>{562.0: 0.9994974242995351, 211.0: 0.02935737516805425, 48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
+    <t>{562.0: 0.9994974242995351, 211.0: 0.02951245272887697, 48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -874,7 +874,7 @@
     <t>{576.0: 1.0, 401.0: 0.015734265734265736}</t>
   </si>
   <si>
-    <t>{577.0: 0.9995192956674869, 602.0: 0.008306962025316455, 423.0: 7.3396323542740645e-06}</t>
+    <t>{577.0: 0.9995192956674869, 602.0: 0.008306962025316455, 423.0: 7.339725826553075e-06}</t>
   </si>
   <si>
     <t>{578.0: 0.8179515418502202}</t>
@@ -883,22 +883,22 @@
     <t>{573.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.6176277135902498}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7074712356882762, 303.0: 0.08526915820731928, 181.0: 0.004568817818389492}</t>
+    <t>{580.0: 0.6167546233569814}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7076557087763062, 303.0: 0.08542101779450953, 181.0: 0.004568817818389492}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 742.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 742.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.7385974867570996, 434.0: 0.014278686035726003}</t>
+    <t>{585.0: 0.738502526649488, 434.0: 0.01281650453822409}</t>
   </si>
   <si>
     <t>{586.0: 1.0, 243.0: 0.011176157530601383}</t>
@@ -907,49 +907,49 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.20124230407122928}</t>
-  </si>
-  <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006203832244919863}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.2023631211425878}</t>
+  </si>
+  <si>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.00620327812086749}</t>
   </si>
   <si>
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.32222566945663483, 686.0: 0.0016654057694474836, 171.0: 0.001344575637659295}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6745488866890498, 686.0: 0.0034863690703496463, 171.0: 0.0028147416094494553, 85.0: 0.005392352175246436, 178.0: 4.7420024785248584e-05, 14.0: 1.4664395685542368e-06, 492.0: 1.4182649564776898e-05, 97.0: 7.210099310416157e-08, 696.0: 1.873639142285223e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077, 476.0: 1.5421205904453837e-05}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017836643902246173}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9745587882870337}</t>
+    <t>{593.0: 0.4952232063620879, 686.0: 0.0025338360963508516, 171.0: 0.0020751461355047337}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5015556694602002, 686.0: 0.0025662364834301977, 171.0: 0.0021016812133392445, 85.0: 0.005392161377242684, 178.0: 4.767118435399492e-05, 14.0: 1.4718110216540514e-06, 492.0: 1.4181377169531444e-05, 97.0: 7.188096116246882e-08, 696.0: 1.820294164229931e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674, 476.0: 1.545128162434429e-05}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.01805030673635607}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9742725534142088}</t>
   </si>
   <si>
     <t>{601.0: 1.0}</t>
   </si>
   <si>
-    <t>{602.0: 0.9916930379746836, 423.0: 0.0008762123005792896, 577.0: 0.00048070433251317675}</t>
+    <t>{602.0: 0.9916930379746836, 423.0: 0.0008762234593889791, 577.0: 0.00048070433251317675}</t>
   </si>
   <si>
     <t>{603.0: 0.9964699949571356}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 922.0: 0.019269432497417367, 852.0: 0.0025188916876574307}</t>
-  </si>
-  <si>
-    <t>{606.0: 0.9962446226757116}</t>
+    <t>{604.0: 0.14655245526248833, 922.0: 0.019270979858163232, 852.0: 0.0025188916876574307}</t>
+  </si>
+  <si>
+    <t>{606.0: 0.9962612248325914}</t>
   </si>
   <si>
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.619199737790098, 610.0: 0.46377929329690437, 531.0: 0.12147832833239579, 262.0: 0.0026866848142964757, 442.0: 0.0002552065721268819, 1.0: 1.0}</t>
@@ -958,16 +958,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.09564755816689355}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.9043524418331064}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.006883365200764819, 698.0: 0.0026191723415400735, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.9804817960786402}</t>
+    <t>{612.0: 1.0, 613.0: 0.09528302951748821}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.9047169704825118}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.006551410373066424, 698.0: 0.0026393929396238865, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.9809807917578434}</t>
   </si>
   <si>
     <t>{616.0: 1.0, 682.0: 0.002717391304347826, 575.0: 5.173296010354117e-06}</t>
@@ -976,10 +976,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.2878917757173359, 789.0: 0.09212777221851126, 681.0: 0.008277260544036505, 171.0: 2.9090907025786297e-05, 90.0: 5.688704373793678e-06, 420.0: 9.022549354333896e-09, 212.0: 6.511616408654362e-05}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9992133045579098, 887.0: 0.008792233232233286, 861.0: 0.015827253643999197, 253.0: 2.603166717763026e-05}</t>
+    <t>{246.0: 0.2876835141540328, 789.0: 0.09212803385885265, 681.0: 0.008276425498336614, 171.0: 2.9213375380886083e-05, 90.0: 5.688573040792835e-06, 420.0: 9.007802115801937e-09, 212.0: 6.511637700023861e-05}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9992133045579098, 887.0: 0.008652480966197218, 861.0: 0.015843873673027867, 253.0: 2.605900275169057e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0, 785.0: 0.007395234182415777}</t>
@@ -991,7 +991,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1003,7 +1003,7 @@
     <t>{626.0: 0.6875132950436077}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0, 603.0: 0.0035300050428643467}</t>
@@ -1012,7 +1012,7 @@
     <t>{631.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1027,16 +1027,16 @@
     <t>{678.0: 1.0, 735.0: 1.0}</t>
   </si>
   <si>
-    <t>{680.0: 0.9733726780999389, 481.0: 0.017981043987404435, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 91.0: 1.6361972769699986e-08, 92.0: 7.895769043438758e-12, 202.0: 3.560782883014801e-05, 477.0: 4.292948682330291e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
-  </si>
-  <si>
-    <t>{681.0: 0.8948750463505933, 171.0: 0.00314508968692994, 90.0: 0.0006150198562785497, 420.0: 9.754500572628648e-07, 212.0: 0.007039869053910691}</t>
+    <t>{680.0: 0.9733726780999389, 481.0: 0.017980770264996004, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 91.0: 1.6157038346075156e-08, 92.0: 7.328329638945523e-12, 202.0: 3.560681346302553e-05, 477.0: 4.292909640954372e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
+  </si>
+  <si>
+    <t>{681.0: 0.8947847675010369, 171.0: 0.0031583300427654656, 90.0: 0.0006150056575440056, 420.0: 9.738556969434549e-07, 212.0: 0.00703989207253523}</t>
   </si>
   <si>
     <t>{682.0: 0.9972826086956522, 575.0: 0.001898599635799961}</t>
   </si>
   <si>
-    <t>{683.0: 0.9911283615192681, 698.0: 0.0020849939496245208}</t>
+    <t>{683.0: 0.9911283615192681, 698.0: 0.002100195030111032}</t>
   </si>
   <si>
     <t>{684.0: 1.0, 685.0: 0.29783014465702284}</t>
@@ -1045,34 +1045,34 @@
     <t>{685.0: 0.7021698553429772}</t>
   </si>
   <si>
-    <t>{686.0: 0.5133392922561841}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088, 502.0: 0.0013810195490477153}</t>
-  </si>
-  <si>
-    <t>{689.0: 1.0, 700.0: 0.00045327179825284327, 580.0: 0.1692483342547498}</t>
+    <t>{686.0: 0.5136687352674095}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479, 502.0: 0.001384683319441916}</t>
+  </si>
+  <si>
+    <t>{689.0: 1.0, 700.0: 0.00045327179825284327, 580.0: 0.16946076032789179}</t>
   </si>
   <si>
     <t>{691.0: 0.9858705560619873}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.02865989283777865, 914.0: 0.005178544615863128}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.5673199293842728, 165.0: 0.03821685800246833, 433.0: 0.008222696228123466, 107.0: -1.9227906956870382e-05, 543.0: -1.5504943096251932e-07, 505.0: 1.331358853608483e-05}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.00687792484409364, 14.0: 0.0009588527772686218, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{692.0: 1.0, 110.0: 0.028671186302468753, 914.0: 0.005178544615863128}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.5693246545684449, 165.0: 0.03833936303366845, 433.0: 0.008273306595928715, 107.0: 0.0014306987065315776, 543.0: 1.1205695134167559e-05, 505.0: 1.331358853608483e-05}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006841233526282549, 14.0: 0.0009589025198243244, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20678074041286243}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7885150932959731, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.43309317842493755}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5621672336053275, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1081,40 +1081,40 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8084888436544718}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142, 477.0: 0.00024935669419516365, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
+    <t>{702.0: 0.8084604296703546}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296, 477.0: 0.00024935208588283014, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9393860466661919}</t>
+    <t>{707.0: 0.939203537722822}</t>
   </si>
   <si>
     <t>{575.0: 0.9980962270681897, 693.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.21312395215500024}</t>
+    <t>{580.0: 0.21378461631512685}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.9535951045385007}</t>
+    <t>{730.0: 0.9525794684731631}</t>
   </si>
   <si>
     <t>{732.0: 0.9985038898862957}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.15663214004979042, 888.0: 0.9935082371324688}</t>
+    <t>{734.0: 1.0, 73.0: 0.156636125432775, 888.0: 0.9935081954737477}</t>
   </si>
   <si>
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
   </si>
   <si>
     <t>{738.0: 0.9928304239401496, 228.0: 0.9928304239401496}</t>
@@ -1123,16 +1123,16 @@
     <t>{739.0: 1.0, 831.0: 0.0011072459610177697}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.9034402019069717, 246.0: 0.050779055413865654, 681.0: 0.06919100043102515, 171.0: 0.00024317574031305195, 90.0: 4.755282797793699e-05, 420.0: 7.542099381110275e-08, 212.0: 0.0005443168682934325}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9918119538491231, 90.0: 0.03336709490427921, 789.0: 0.001337755535269926, 246.0: 0.0046769653436076015}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 742.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.04085429900303e-07}</t>
+    <t>{740.0: 1.0, 789.0: 0.9034306633239612, 246.0: 0.05074174755041244, 681.0: 0.06918402014484548, 171.0: 0.00024419947370472357, 90.0: 4.7551730143494106e-05, 420.0: 7.529771918634102e-08, 212.0: 0.0005443186480744946}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.991803949454545, 90.0: 0.033366825615940315, 789.0: 0.0013407587636822436, 246.0: 0.0046735214091655165}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 742.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.040592407155029e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0, 691.0: 0.014129443938012761}</t>
@@ -1144,7 +1144,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.18580263341122483, 476.0: 0.15804473364474264, 534.0: 0.10433552368754528, 297.0: 0.00040398925276964663}</t>
+    <t>{298.0: 0.18735357437249206, 476.0: 0.15962496150509836, 534.0: 0.10389616753726529, 297.0: 0.00040628664713390897}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
@@ -1168,10 +1168,10 @@
     <t>{759.0: 0.9941960447119519, 226.0: 0.0006973890208834278}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
   </si>
   <si>
     <t>{762.0: 0.9936716013108826, 141.0: 0.02572823969081004}</t>
@@ -1186,16 +1186,16 @@
     <t>{768.0: 0.9878610297195479}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.004195915018970644}</t>
+    <t>{770.0: 1.0, 992.0: 0.004189527220903865}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.008611165443517668, 108.0: 7.563009847926788e-05, 144.0: 6.43608737861464e-07}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.34200974234125203}</t>
+    <t>{772.0: 1.0, 493.0: 0.00858672963473121, 108.0: 7.537304878562167e-05, 144.0: 6.4142125652504e-07}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.3420146417863564}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1207,55 +1207,55 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9959118339148554, 171.0: 0.018258760872775833, 184.0: 0.008192684577809846, 593.0: 0.0012391153462810018, 420.0: 0.0013220370978487693, 212.0: 1.2372956890280223e-06, 681.0: 7.94241375218587e-09}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.00039723359866790484, 172.0: 8.372821674516765e-07, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{778.0: 0.9959273581243772, 171.0: 0.018048277346930958, 184.0: 0.008208994008638804, 593.0: 0.0012387818720972163, 420.0: 0.001319876245559199, 212.0: 1.2323045809641737e-06, 681.0: 7.92139220675492e-09}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.00039170218459303987, 172.0: 8.227999526119286e-07, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9854036799854853, 889.0: 0.5730622017651047}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.07193430359883551}</t>
+    <t>{785.0: 0.9854036799854853, 889.0: 0.25659597967009595}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.07246141757548118}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
-  </si>
-  <si>
-    <t>{833.0: 0.9992826398852224, 17.0: 0.015055735764571863, 918.0: 0.0009153035400826402}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.5187153827751221, 210.0: 0.05184901838221328, 82.0: 5.35156485808748e-05, 788.0: -1.0490616541994016e-05}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951990927166076, 836.0: 0.022287545654982754, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9777124543450172, 835.0: 0.0048009072833924355}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 486.0: 1.0, 604.0: 0.406643068799627, 980.0: 0.30157180612251394, 840.0: 0.852224123182207, 303.0: 0.04791084093211753, 144.0: 5.258577454980797e-05}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 423.0: 0.005372966926216832}</t>
+    <t>{832.0: 0.8786591123701605}</t>
+  </si>
+  <si>
+    <t>{833.0: 0.9992826398852224, 17.0: 0.015056719799589153, 918.0: 0.0009153035400826402}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.5186852681208028, 210.0: 0.05184901838221328, 82.0: 5.35156485808748e-05, 788.0: -9.163481340406811e-06}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9950128062170731, 836.0: 0.02148231330574205, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.978517686694258, 835.0: 0.004987193782926856}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 486.0: 1.0, 604.0: 0.40822465293820404, 980.0: 0.30157180612251394, 840.0: 0.852224123182207, 303.0: 0.04790278969434347, 144.0: 5.236067177139265e-05}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 423.0: 0.005360300071658137}</t>
   </si>
   <si>
     <t>{841.0: 0.9972936400541272}</t>
   </si>
   <si>
-    <t>{842.0: 1.0, 606.0: 0.0023047880223845264}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.33900173438483133, 686.0: 0.016437816720647872}</t>
+    <t>{842.0: 1.0, 606.0: 0.0023048264310759777}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.37937347157157514, 686.0: 0.01637923011790771}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1264,25 +1264,25 @@
     <t>{846.0: 0.9996156310057656}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 707.0: 0.004892798537073047, 634.0: 0.7423394242266101}</t>
-  </si>
-  <si>
-    <t>{849.0: 1.0, 315.0: 0.002220029600394672, 217.0: 1.1913625224321567e-05}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9973377703826956, 277.0: 0.028770845290212236}</t>
+    <t>{848.0: 0.9228851136919364, 707.0: 0.005069249937886742, 634.0: 0.7475404131057521}</t>
+  </si>
+  <si>
+    <t>{849.0: 1.0, 315.0: 0.002220029600394672, 217.0: 1.1998133290428898e-05}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9973324441480493, 277.0: 0.028906585596008384}</t>
   </si>
   <si>
     <t>{851.0: 1.0, 7.0: 1.0, 229.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.002024506005837099}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.999936846093931, 91.0: 0.000333083017097464, 92.0: 1.6073529838428901e-07, 202.0: 0.724873658328013, 680.0: 0.02549723214989914, 477.0: 0.9972701116692255, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003613790208428865, 574.0: 1.0, 906.0: 0.007075471698113208}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0020934673940556}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.999936846093931, 91.0: 0.0003289111377593871, 92.0: 1.4918385336424814e-07, 202.0: 0.7248529883544482, 680.0: 0.02549723214989914, 477.0: 0.9972701616016698, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003613735196308318, 574.0: 1.0, 906.0: 0.007075471698113208}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1291,19 +1291,19 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.8985835125186872, 298.0: 0.001903546161053681}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06410669123707292, 543.0: 0.0011978894970558532}</t>
+    <t>{857.0: 0.8985182985681253, 298.0: 0.001920930441631163}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.308581204304183, 543.0: 0.005767766291950296}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1312,10 +1312,10 @@
     <t>{886.0: 0.3792551629775861, 531.0: 0.010622899727404714, 262.0: 0.0002349421808251973, 442.0: 2.2317016234043518e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.7815194956790985, 834.0: 0.0036270849163956343, 619.0: 0.0006435006435006435, 861.0: 1.019286658644678e-05, 253.0: 1.676458320139273e-08}</t>
-  </si>
-  <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
+    <t>{887.0: 0.7806455339762128, 834.0: 0.0036884952488533893, 619.0: 0.0006435006435006435, 861.0: 1.0203570006153226e-05, 253.0: 1.6782187510120435e-08}</t>
+  </si>
+  <si>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1327,58 +1327,58 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 0.9841479524438573}</t>
   </si>
   <si>
-    <t>{895.0: 1.0, 209.0: 0.03218898503285146, 896.0: 1.0, 897.0: 0.025430154564012833, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.3316279169711094, 270.0: 0.0003317515081802529, 479.0: 7.023788701009786e-06, 942.0: 6.463609234058086e-08, 769.0: 0.4943955164131305}</t>
-  </si>
-  <si>
-    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750516307268886, 202.0: 5.753018094275371e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.001011531576824e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.46065727549643454}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.3687705022083621}</t>
-  </si>
-  <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05, 502.0: 9.52825530390437e-06}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9841625534894144, 253.0: 0.0016186884103444312, 490.0: 0.04730928444707274, 225.0: 1.0, 779.0: 0.04822182037371911, 493.0: 0.0028200061665639513, 108.0: 2.476753529917669e-05, 144.0: 2.107706118908742e-07, 619.0: 0.0001431947985895543, 887.0: 1.2599932978264957e-06}</t>
+    <t>{895.0: 1.0, 209.0: 0.03218652840156133, 896.0: 1.0, 897.0: 0.02537243947858473, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.33094313345793486, 270.0: 0.0003317515081802529, 479.0: 6.815726159460524e-06, 942.0: 6.279363832132536e-08, 769.0: 0.4943955164131305}</t>
+  </si>
+  <si>
+    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750114340227723, 202.0: 5.7534504121471e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.00088973352395e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.4635006889360994}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.3663262362192328}</t>
+  </si>
+  <si>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05, 502.0: 9.553533251428648e-06}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9841459227569659, 253.0: 0.0016186610571660622, 490.0: 0.047477744807121657, 225.0: 1.0, 779.0: 0.04822182037371911, 493.0: 0.0028200756742374905, 108.0: 2.4754209159410783e-05, 144.0: 2.1065720704058634e-07, 619.0: 0.0001431947985895543, 887.0: 1.23996574465423e-06}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.2928357183343312, 420.0: 0.13447613311335305}</t>
+    <t>{915.0: 1.0, 171.0: 0.29019767916417166, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.863564253001892}</t>
+    <t>{917.0: 0.8632249465758889}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{298.0: 0.22396696302162192, 297.0: 0.0009905894006934125, 857.0: 0.0007418295946381623}</t>
+    <t>{298.0: 0.22398909751516538, 297.0: 0.0009962226557635632, 857.0: 0.0007423444404376626}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.0697701476794267}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.8438891822425123, 887.0: 0.03495193706015904, 834.0: 1.6636840024509805e-05}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.06954351822272714}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.8449368801810523, 887.0: 0.034908546547372354, 834.0: 1.7482515964782455e-05}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1387,7 +1387,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.25297432686286786, 263.0: 0.0020337729569826204, 595.0: 3.4884613327317675e-06}</t>
+    <t>{141.0: 0.25297432686286786, 263.0: 0.0020337729569826204, 595.0: 3.5240935871107877e-06}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1396,64 +1396,64 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.06633246172511484, 887.0: 5.839225761840412e-05, 834.0: 2.7794243477701342e-08}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06512923086076715, 887.0: 5.8319767501576726e-05, 834.0: 2.920706724426663e-08}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
   </si>
   <si>
-    <t>{932.0: 1.0, 108.0: 0.0004714245245266227, 144.0: 4.011801509298491e-06}</t>
-  </si>
-  <si>
-    <t>{933.0: 0.8127015281087901, 702.0: 0.005693799232958874, 249.0: 0.09355459834493014, 299.0: 0.05782857142857143}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.014752927942984006}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
-  </si>
-  <si>
-    <t>{936.0: 1.0, 702.0: 0.00019292012952337205}</t>
-  </si>
-  <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{940.0: 1.0, 785.0: 0.00720108583209908, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{932.0: 1.0, 108.0: 0.0004714268749157421, 144.0: 4.011821511004228e-06}</t>
+  </si>
+  <si>
+    <t>{933.0: 0.8127015281087901, 702.0: 0.005607026792092212, 249.0: 0.09435006897597502, 299.0: 0.05782857142857143}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.014708056784987813}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
+  </si>
+  <si>
+    <t>{936.0: 1.0, 702.0: 0.0001753973130734226}</t>
+  </si>
+  <si>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{940.0: 1.0, 785.0: 0.00720108583209908, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.9597625493653908}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082, 707.0: 0.0004067745528724848}</t>
+    <t>{942.0: 0.9597522834883334}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371, 707.0: 0.0004235788689487784}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 975.0: 0.00211164005116051, 152.0: 0.00043336244194414986}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.32523553473386324, 615.0: 0.012634838720595046}</t>
+    <t>{971.0: 0.9959752321981424, 975.0: 0.002154720585817263, 152.0: 0.00042499476517949327}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.32523553473386324, 615.0: 0.01246779786909029}</t>
   </si>
   <si>
     <t>{973.0: 1.0, 565.0: 0.010326270022292377}</t>
   </si>
   <si>
-    <t>{975.0: 0.9913115968644323, 152.0: 0.07117800722589049}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9912686205827286, 152.0: 0.07117860548757622}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{782.0: 0.21279960670180362, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1465,16 +1465,16 @@
     <t>{981.0: 1.0}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.007024977698483497, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.6493705425955395}</t>
-  </si>
-  <si>
-    <t>{4.0: 0.91165787329101, 496.0: 0.004334876500652204, 559.0: 0.04545999385731579, 944.0: 0.035880301665161124, 971.0: 0.0022708478827425127, 975.0: 1.3453049265925552e-05, 152.0: 2.353316507224184e-06, 166.0: 0.00038000778598933077, 893.0: 2.926513561719916e-07}</t>
+    <t>{989.0: 1.0, 249.0: 0.007069120287253142, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.6493798451238946}</t>
+  </si>
+  <si>
+    <t>{4.0: 0.91165787329101, 496.0: 0.004334876500652204, 559.0: 0.04545999385731579, 944.0: 0.035880301665161124, 971.0: 0.0022708478827425127, 975.0: 1.3453049265925552e-05, 152.0: 2.353316507224184e-06, 166.0: 0.0003800041378228341, 893.0: 2.962995226688764e-07}</t>
   </si>
   <si>
     <t>{5.0: 0.9962516462364502, 403.0: 0.003748353763549791}</t>
@@ -1489,7 +1489,7 @@
     <t>{10.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919299714123919, 178.0: 0.0006410880191330579, 623.0: 0.0016149870801033584, 696.0: 0.005721431161519686, 492.0: 9.252232685240913e-05}</t>
+    <t>{14.0: 0.9919351812436294, 178.0: 0.000640674146945109, 623.0: 0.001613944480309877, 696.0: 0.005717900736820557, 492.0: 9.229939229500001e-05}</t>
   </si>
   <si>
     <t>{16.0: 1.0}</t>
@@ -1510,7 +1510,7 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.8360594187381462, 90.0: 0.060501317216433745, 246.0: 0.060836043701626874, 681.0: 0.024047541953283215, 741.0: 0.007682407370618041, 789.0: 0.010873271019892425}</t>
+    <t>{46.0: 0.8360594187381462, 90.0: 0.060501317216433745, 246.0: 0.06083530380575233, 681.0: 0.024047541953283215, 741.0: 0.0076824073706180385, 789.0: 0.01087401091576699}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -1519,7 +1519,7 @@
     <t>{50.0: 0.7027624309392265, 96.0: 0.14157087340618177, 100.0: 0.15566669565459174}</t>
   </si>
   <si>
-    <t>{834.0: 0.901886977527475, 887.0: 0.0979437126920631, 210.0: 0.00016819795756512496, 82.0: 2.4321125861513637e-07, 788.0: 8.686116379112015e-07}</t>
+    <t>{834.0: 0.9018869579531449, 887.0: 0.09794373226639341, 210.0: 0.00016819795756512496, 82.0: 2.4321125861513637e-07, 788.0: 8.686116379112015e-07}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -1528,16 +1528,16 @@
     <t>{73.0: 0.8707625109862649, 888.0: 0.007535418671092929, 11.0: 0.12170207034264226}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487787, 917.0: 0.22668409045122156}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.999477670410029, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.7755896859332863, 917.0: 0.22441031406671366}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613502, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{79.0: 0.9797512417816668, 271.0: 0.018221544275942185, 262.0: 0.0020272139423908164}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699434, 172.0: 0.001461732130057138}</t>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.0014629265508203809}</t>
   </si>
   <si>
     <t>{82.0: 0.7932843425038838, 914.0: 0.0009225701795882796, 110.0: 9.765832606118458e-05, 860.0: 0.2056954289904669}</t>
@@ -1549,7 +1549,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680975, 178.0: 0.023626260699482204, 14.0: 0.00018083264312365534, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620285e-06}</t>
+    <t>{85.0: 0.9672733850680975, 178.0: 0.023626260699482204, 14.0: 0.00018083264312365534, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.4781030306718485e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9994187660044908, 165.0: 0.00047624670312689497, 433.0: 0.00010498729238260625}</t>
@@ -1561,7 +1561,7 @@
     <t>{89.0: 0.9985642498205316, 88.0: 0.001435750179468772}</t>
   </si>
   <si>
-    <t>{90.0: 0.9975819711770967, 420.0: 0.002417631055372248, 212.0: 3.8915162811600756e-07, 681.0: 8.615903205520463e-09}</t>
+    <t>{90.0: 0.9975819711770967, 420.0: 0.002417631055372248, 212.0: 3.8915162811600777e-07, 681.0: 8.615903205520463e-09}</t>
   </si>
   <si>
     <t>{91.0: 0.9592936041245316, 92.0: 0.04001922806534925, 858.0: 0.0006784398019144885, 543.0: 8.728008204353057e-06}</t>
@@ -1579,13 +1579,13 @@
     <t>{99.0: 0.9935367114788004, 230.0: 0.006463288521199587}</t>
   </si>
   <si>
-    <t>{107.0: 0.9873417806854713, 543.0: 0.007290191759953183, 86.0: 0.0017257754208054286, 505.0: 0.0036422521337693497}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9879188511511287, 144.0: 0.012081148848871664}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.6641652280938671, 110.0: 0.20318185859898202, 914.0: 0.13265291330715132}</t>
+    <t>{107.0: 0.9873470411649155, 543.0: 0.007284922085713776, 86.0: 0.0017257846156012954, 505.0: 0.0036422521337693497}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9879188511511275, 144.0: 0.012081148848871664}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.6641652280938668, 110.0: 0.20318185859898202, 914.0: 0.13265291330715132}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1594,7 +1594,7 @@
     <t>{140.0: 0.35852366256693413, 762.0: 0.005155964330700646, 141.0: 0.6363203731023652}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273647}</t>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.015288077581289226}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1609,13 +1609,13 @@
     <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888536}</t>
   </si>
   <si>
-    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.02189152298465993, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.021891672992387104, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.8953373976905101, 914.0: 0.09579461286779518, 110.0: 0.008867989441694457}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542519}</t>
+    <t>{166.0: 0.9992208804051423, 893.0: 0.0007791195948578106}</t>
   </si>
   <si>
     <t>{167.0: 0.41887592238992716, 596.0: 0.5805857938202688, 276.0: 0.00053828378980415}</t>
@@ -1627,13 +1627,13 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.978468430091143, 81.0: 0.020556721010436343, 97.0: 0.0009748488984207448}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.946144045410139, 404.0: 0.006089422657506926, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.2885762735512773e-06, 681.0: 2.8529363990065154e-08, 831.0: 0.0014662756598240463}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.16402617726976323, 502.0: 0.5617496088281262, 534.0: 0.00038684466796013323, 298.0: 0.00034882746042378364, 857.0: 0.00026403899429243774, 204.0: 0.273224502779434}</t>
+    <t>{172.0: 0.9784684483586, 81.0: 0.020556702742979403, 97.0: 0.0009748488984207448}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9461505286921804, 404.0: 0.006082939375465398, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.2885762735512775e-06, 681.0: 2.8529363990065154e-08, 831.0: 0.0014662756598240463}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.16470149953722885, 502.0: 0.5610742865606607, 534.0: 0.00038684466796013323, 298.0: 0.00034886609755089936, 857.0: 0.0002627172097239232, 204.0: 0.2732257859268754}</t>
   </si>
   <si>
     <t>{175.0: 0.9813273695447163, 399.0: 0.018135092379669766, 846.0: 0.0005375380756136893}</t>
@@ -1645,25 +1645,25 @@
     <t>{177.0: 0.9988607234406153, 562.0: 0.0011014279934070577, 211.0: 3.784856597773307e-05}</t>
   </si>
   <si>
-    <t>{178.0: 0.9787688438400038, 14.0: 0.007491382546310045, 681.0: 0.0071717530791852065, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5374525139860676, 180.0: 0.4506362016142386, 410.0: 0.011704328030112692, 850.0: 0.00018677880522148456, 277.0: 2.017756435969322e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9742485155365542, 410.0: 0.0253040571703813, 850.0: 0.0004038046057304886, 277.0: 4.362268733438852e-05}</t>
+    <t>{178.0: 0.9787135366093607, 14.0: 0.00749095923121892, 681.0: 0.0072274836249193305, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5383826591317817, 180.0: 0.44973000908679295, 410.0: 0.011680791584168787, 850.0: 0.00018640320832764734, 277.0: 2.013698892882613e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9742485155365539, 410.0: 0.0253040571703813, 850.0: 0.0004038046057304886, 277.0: 4.362268733438852e-05}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9979967004477963, 277.0: 0.0020032995522036297}</t>
+    <t>{182.0: 0.9979888796876848, 277.0: 0.0020111203123151546}</t>
   </si>
   <si>
     <t>{182.0: 0.9975965652732816, 277.0: 0.0024034347267185468}</t>
   </si>
   <si>
-    <t>{184.0: 0.9698751361664371, 171.0: 0.011496757453733453, 593.0: 0.0033706896785585493, 778.0: 0.015229946623203337, 420.0: 2.7465559220133375e-05, 212.0: 4.420966989103237e-09, 681.0: 9.788118795062518e-11}</t>
+    <t>{184.0: 0.9698324076519498, 171.0: 0.01150971730022789, 593.0: 0.003379243143430801, 778.0: 0.015251161826322664, 420.0: 2.7465559220133375e-05, 212.0: 4.420966989103239e-09, 681.0: 9.788118795062518e-11}</t>
   </si>
   <si>
     <t>{858.0: 0.9872985781990523, 543.0: 0.012701421800947868}</t>
@@ -1678,7 +1678,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.991827103824977, 857.0: 0.00536540079700101, 174.0: 0.0006338547442648271, 502.0: 0.002170797738333054, 534.0: 1.4949036316124845e-06, 298.0: 1.3479917925285053e-06}</t>
+    <t>{204.0: 0.9918803394545189, 857.0: 0.005312165018151226, 174.0: 0.0006364644266354451, 502.0: 0.0021681880559624367, 534.0: 1.4949036316124845e-06, 298.0: 1.348141099954519e-06}</t>
   </si>
   <si>
     <t>{205.0: 0.9904418591949314, 206.0: 0.007663476366793177, 578.0: 0.0018946644382753692}</t>
@@ -1711,13 +1711,13 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680912, 409.0: 0.21846661763190867}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310289, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345017, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{218.0: 0.7813754377265824, 409.0: 0.21862456227341753}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310295, 999.0: 0.09984639016897079}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648748, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1729,7 +1729,7 @@
     <t>{226.0: 0.9845670939053099, 265.0: 0.015432906094690035}</t>
   </si>
   <si>
-    <t>{227.0: 0.999666475270424, 297.0: 0.00018045618356780222, 686.0: 0.00015306854600825932}</t>
+    <t>{227.0: 0.9996683166600522, 297.0: 0.00017861479393955929, 686.0: 0.00015306854600825932}</t>
   </si>
   <si>
     <t>{230.0: 0.9967205946655007, 581.0: 0.0030694922307337147, 303.0: 0.00020991310376563044}</t>
@@ -1741,7 +1741,7 @@
     <t>{238.0: 0.9953091684434967, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364935}</t>
+    <t>{240.0: 0.23750306546350647, 241.0: 0.7624969345364935}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1753,10 +1753,10 @@
     <t>{244.0: 0.9749250597858431, 565.0: 0.02147659921435809, 564.0: 0.003344285635764883, 84.0: 0.00025405536403417004}</t>
   </si>
   <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947861}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9994468393081731, 46.0: 0.00048162405811961025, 90.0: 3.485265432849212e-05, 681.0: 1.3852932559293717e-05, 741.0: 4.425561307053365e-06, 789.0: 1.8405485512825277e-05}</t>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.01270142180094787}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9994468380528209, 46.0: 0.00048162405811961025, 90.0: 3.485265432849212e-05, 681.0: 1.3852932559293717e-05, 741.0: 4.425561307053365e-06, 789.0: 1.8406740864772884e-05}</t>
   </si>
   <si>
     <t>{249.0: 0.8773903262092239, 600.0: 0.12260967379077614}</t>
@@ -1780,7 +1780,7 @@
     <t>{262.0: 0.9992897727272729, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549509, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.9986024273630009, 595.0: 0.001397572636998897}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
@@ -1792,7 +1792,7 @@
     <t>{272.0: 0.8427700348432055, 203.0: 0.15722996515679444}</t>
   </si>
   <si>
-    <t>{686.0: 0.9462026456299708, 921.0: 0.007832083685657111, 77.0: 0.04594126166338233, 85.0: 2.400902098948645e-05}</t>
+    <t>{686.0: 0.9462026456299708, 921.0: 0.007832083685657111, 77.0: 0.045940876219367474, 85.0: 2.4394465004310364e-05}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937943, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1810,7 +1810,7 @@
     <t>{285.0: 0.8919655461591188, 311.0: 0.10803445384088109}</t>
   </si>
   <si>
-    <t>{909.0: 0.953615451526891, 142.0: 0.004010524852004906, 788.0: 0.04237388612014245, 44.0: 1.3750096152363283e-07}</t>
+    <t>{909.0: 0.953615451526891, 142.0: 0.0040105241303797804, 788.0: 0.04237388612014245, 44.0: 1.3822258664971235e-07}</t>
   </si>
   <si>
     <t>{287.0: 0.31605461345045516, 847.0: 0.08930331364660231, 409.0: 0.4173254281949934, 750.0: 0.17731664470794906}</t>
@@ -1831,7 +1831,7 @@
     <t>{293.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.821712315603181, 298.0: 0.16955259517586677, 476.0: 1.1765641985097575e-05, 534.0: 9.59667146262742e-06, 857.0: 0.008713726907504675}</t>
+    <t>{297.0: 0.8217120967662809, 298.0: 0.16955531291751008, 476.0: 1.1765641985097575e-05, 534.0: 9.59667146262742e-06, 857.0: 0.00871122800276126}</t>
   </si>
   <si>
     <t>{299.0: 0.9836831771673026, 443.0: 0.01458667696336836, 291.0: 0.0017301458693291302}</t>
@@ -1840,7 +1840,7 @@
     <t>{301.0: 0.9995592383638928, 145.0: 0.0004333709205954403, 743.0: 1.3700028984314633e-06, 544.0: 4.0916799471302986e-10, 975.0: 1.2514541508064231e-06, 942.0: 4.685949257780303e-06, 152.0: 8.290003674011708e-08}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701202, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
+    <t>{303.0: 0.9111062991603585, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -1849,22 +1849,19 @@
     <t>{305.0: 0.999240506329114, 732.0: 0.0007594936708860759}</t>
   </si>
   <si>
-    <t>{142.0: 0.31786658877294144, 909.0: 0.6821038549456095, 44.0: 2.9556281449005187e-05}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.8858654923525076, 204.0: 0.0409854440794062, 426.0: 0.0731432659158121, 857.0: 5.797652272921263e-06}</t>
+    <t>{142.0: 0.3178664336572601, 909.0: 0.6821038549456095, 44.0: 2.9711397130311994e-05}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.8880984604071779, 204.0: 0.04103334546343127, 426.0: 0.07086273685860801, 857.0: 5.45727078249987e-06}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392753, 5.0: 0.05300183025736111, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.007315957933241885}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452711, 71.0: 0.017762842054728757}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
+    <t>{315.0: 0.9926840420667586, 217.0: 0.007315957933241885}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534323, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.4211033519367684, 98.0: 0.4876573019684989, 532.0: 0.0650062875506497, 560.0: 0.026233058544082716}</t>
@@ -1885,37 +1882,37 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.1809349165971995, 404.0: 0.7105462066295465, 782.0: 0.012351345839021853, 930.0: 0.09616753093423205}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.9430399999999999, 403.0: 0.05696}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9895157952821078, 77.0: 0.010478728507540653, 85.0: 5.476210351471466e-06}</t>
+    <t>{405.0: 0.17699640347484036, 404.0: 0.714459882052916, 782.0: 0.012362618293449795, 930.0: 0.09618109617879396}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.05686174290825453}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9895157952821078, 77.0: 0.010478640591731635, 85.0: 5.564126160484077e-06}</t>
   </si>
   <si>
     <t>{414.0: 0.9969001859888406, 759.0: 0.0030998140111593298}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471701, 277.0: 0.1268867924528302}</t>
-  </si>
-  <si>
-    <t>{418.0: 0.9705407929365818, 922.0: 0.02744343438003586, 887.0: 0.002013998002050393, 834.0: 1.774681331687818e-06}</t>
-  </si>
-  <si>
-    <t>{419.0: 0.985210466439135, 17.0: 0.014789533560864624}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597467, 212.0: 0.0001609375473236561, 681.0: 3.5631929296750426e-06}</t>
+    <t>{415.0: 0.8729333963155408, 277.0: 0.12706660368445913}</t>
+  </si>
+  <si>
+    <t>{418.0: 0.9705407929365818, 922.0: 0.02744343438003586, 887.0: 0.0020140238148212953, 834.0: 1.7488685607857588e-06}</t>
+  </si>
+  <si>
+    <t>{419.0: 0.9852607709750567, 17.0: 0.01473922902494331}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597467, 212.0: 0.00016093754732365617, 681.0: 3.5631929296750426e-06}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9987563735853747, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021111618136540838, 91.0: 2.5031470007799736e-07, 92.0: 4.639595059416486e-11, 680.0: 4.5181222698519826e-08, 477.0: 2.1032372732886715e-05, 207.0: 5.350025699706738e-07}</t>
-  </si>
-  <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.04756292440600671, 434.0: 0.0003999430514455908}</t>
+    <t>{423.0: 0.9987563735853747, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021111618136540828, 91.0: 2.5031470007799736e-07, 92.0: 4.639595059416486e-11, 680.0: 4.5181222698519826e-08, 477.0: 2.104891443709804e-05, 207.0: 5.18460865759347e-07}</t>
+  </si>
+  <si>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04748944923957108, 434.0: 0.00039932521974922784}</t>
   </si>
   <si>
     <t>{425.0: 0.9661477637756363, 244.0: 0.019351018158508412, 565.0: 0.0007963404438087853, 436.0: 0.0029651593773165306, 564.0: 0.0026326333041735137, 84.0: 0.00019999326771240659, 567.0: 0.007412898443291327, 841.0: 0.0004941932295527551}</t>
@@ -1930,7 +1927,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243408, 783.0: 0.0001883948756593821}</t>
+    <t>{431.0: 0.9996376811594209, 783.0: 0.0003623188405797101}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1942,10 +1939,10 @@
     <t>{433.0: 1.0}</t>
   </si>
   <si>
-    <t>{434.0: 0.693630435236865, 585.0: 0.3063695647631346}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9862700228832952, 781.0: 0.013725173626168352, 81.0: 4.796469120002929e-06, 172.0: 7.0214164535638515e-09}</t>
+    <t>{434.0: 0.693630435236865, 585.0: 0.3063695647631347}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9862700228832952, 781.0: 0.013725173626168352, 81.0: 4.7964633826140964e-06, 172.0: 7.027153842396637e-09}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -1954,7 +1951,7 @@
     <t>{439.0: 0.973535457348407, 83.0: 0.02646454265159301}</t>
   </si>
   <si>
-    <t>{441.0: 0.9886363636363632, 782.0: 0.011363636363636367}</t>
+    <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636362}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
@@ -1972,25 +1969,25 @@
     <t>{478.0: 0.7032887077997673, 170.0: 0.29671129220023285}</t>
   </si>
   <si>
-    <t>{479.0: 0.9240044013343366, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
+    <t>{479.0: 0.9235911012950445, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555476, 563.0: 0.03900037864445287}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923825, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869779, 503.0: 0.022113022113022116}</t>
+    <t>{483.0: 0.9609996213555467, 563.0: 0.03900037864445287}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066563, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294475, 503.0: 0.02208588957055216}</t>
   </si>
   <si>
     <t>{491.0: 0.594383150823144, 492.0: 0.40561684917685586}</t>
   </si>
   <si>
-    <t>{492.0: 0.9720846592169228, 97.0: 0.011519836235458275, 696.0: 0.0004892714720398, 85.0: 0.0005224471486935846, 178.0: 0.015266934590589339, 14.0: 0.00011685133629600277}</t>
+    <t>{492.0: 0.9720846452514069, 97.0: 0.011519836235458275, 696.0: 0.0004892854375563532, 85.0: 0.0005224471486935846, 178.0: 0.015266934590589339, 14.0: 0.00011685133629600277}</t>
   </si>
   <si>
     <t>{493.0: 0.9826319305277219, 108.0: 0.01715824323976576, 144.0: 0.00020982623251213317}</t>
@@ -2005,7 +2002,7 @@
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.5028381312363647, 270.0: 0.2181751331443209, 479.0: 0.002730304035076804, 942.0: 6.181820456777674e-05, 679.0: 0.16646394439617723, 769.0: 0.10973066898349261}</t>
+    <t>{499.0: 0.5028381312363647, 270.0: 0.2181751331443209, 479.0: 0.0027290827911483732, 942.0: 6.303944849620883e-05, 679.0: 0.16646394439617723, 769.0: 0.10973066898349261}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2029,10 +2026,10 @@
     <t>{532.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9130846649933189, 402.0: 0.0006865588905779017, 476.0: 7.2219623763109995e-06, 141.0: 1.3853451536625656e-06, 174.0: 0.014212196874709235, 502.0: 0.04867330427280497, 298.0: 3.0224471638415416e-05, 857.0: 2.0765721166853833e-05, 204.0: 0.023283677468253876}</t>
-  </si>
-  <si>
-    <t>{535.0: 0.9934522679825397, 71.0: 0.006547732017460618}</t>
+    <t>{534.0: 0.9130846649933189, 402.0: 0.0006865588905779017, 476.0: 7.2219623763109995e-06, 141.0: 1.3853451536625656e-06, 174.0: 0.014270710784981688, 502.0: 0.04861479036253252, 298.0: 3.022781938733197e-05, 857.0: 2.067215304595761e-05, 204.0: 0.02328376768862586}</t>
+  </si>
+  <si>
+    <t>{535.0: 0.9934522679825393, 71.0: 0.006547732017460618}</t>
   </si>
   <si>
     <t>{604.0: 0.9289167165415957, 779.0: 0.07108328345840431}</t>
@@ -2068,7 +2065,7 @@
     <t>{561.0: 0.99756216479766, 979.0: 0.00243783520234032}</t>
   </si>
   <si>
-    <t>{562.0: 0.8159274650691113, 211.0: 0.028037860558806155, 48.0: 0.14328649982949973, 443.0: 0.011396428448843558, 291.0: 0.0013517460937394006}</t>
+    <t>{562.0: 0.8159274650691113, 211.0: 0.028037860558806155, 48.0: 0.14328649982949973, 443.0: 0.011396428448843567, 291.0: 0.0013517460937394}</t>
   </si>
   <si>
     <t>{563.0: 1.0}</t>
@@ -2095,7 +2092,7 @@
     <t>{581.0: 0.9342673531606404, 303.0: 0.06389166191242392, 181.0: 0.0018409849269359108}</t>
   </si>
   <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.3853415807950608, 758.0: 0.0038126361655773425}</t>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.3853415807950608, 758.0: 0.0038126361655773425}</t>
   </si>
   <si>
     <t>{585.0: 0.9916614024005053, 434.0: 0.00833859759949463}</t>
@@ -2110,13 +2107,13 @@
     <t>{589.0: 0.9635931981692134, 145.0: 0.001457046166586512, 743.0: 0.022665162591345742, 10.0: 0.012284593072854464}</t>
   </si>
   <si>
-    <t>{593.0: 0.9912075672819319, 686.0: 0.005427172557571233, 171.0: 0.003365260160497021}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.9878301710357594, 686.0: 0.005408680253004251, 171.0: 0.003353793523832187, 85.0: 0.003295843986250127, 178.0: 8.05030619533526e-05, 14.0: 6.1616104459946e-07, 492.0: 3.031470093290503e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5258052073198007e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991012043861228, 402.0: 0.0008894395353984783, 476.0: 9.356078478926186e-06}</t>
+    <t>{593.0: 0.9912172314130084, 686.0: 0.00541750842649402, 171.0: 0.003365260160497021}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.987839802237709, 686.0: 0.005399049051054197, 171.0: 0.003353793523832187, 85.0: 0.003295843986250127, 178.0: 8.05030619533526e-05, 14.0: 6.1616104459946e-07, 492.0: 3.0314700497386945e-05, 97.0: 6.201917147818674e-08, 696.0: 1.525848759129169e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991012043861228, 402.0: 0.0008894395353984777, 476.0: 9.356078478926186e-06}</t>
   </si>
   <si>
     <t>{598.0: 0.9820673168294204, 599.0: 0.017932683170579104}</t>
@@ -2131,7 +2128,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.927619598905008, 922.0: 0.07120751642374874, 852.0: 0.001172884671243}</t>
+    <t>{604.0: 0.9283577968987251, 922.0: 0.07046941185811584, 852.0: 0.0011727912431587178}</t>
   </si>
   <si>
     <t>{606.0: 1.0}</t>
@@ -2152,7 +2149,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.829288246523043, 615.0: 0.019634578674665927, 698.0: 0.010908099263703295, 832.0: 0.1401690755385874}</t>
+    <t>{305.0: 0.829288246523043, 615.0: 0.019634578674665944, 698.0: 0.010908099263703295, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -2161,10 +2158,10 @@
     <t>{616.0: 0.9959899749373433, 682.0: 0.003997969780970601, 575.0: 1.2055281686040737e-05}</t>
   </si>
   <si>
-    <t>{246.0: 0.7537463958568987, 789.0: 0.23373189579710482, 681.0: 0.012425330219683638, 171.0: 5.415692450063821e-05, 90.0: 9.555721153299814e-06, 420.0: 2.315820542489927e-08, 212.0: 3.2642322453426716e-05}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9655096441914441, 887.0: 0.013007925875422119, 861.0: 0.02146674605646208, 253.0: 1.5683876672083762e-05}</t>
+    <t>{246.0: 0.7537304350364985, 789.0: 0.23374785661750527, 681.0: 0.012425330219683638, 171.0: 5.415692450063821e-05, 90.0: 9.555721153299814e-06, 420.0: 2.315820542489927e-08, 212.0: 3.2642322453426716e-05}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025536, 887.0: 0.013046083606791261, 861.0: 0.02152800086044684, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{620.0: 0.9954229530428886, 785.0: 0.004577046957111375}</t>
@@ -2191,7 +2188,7 @@
     <t>{678.0: 0.5749604714675866, 735.0: 0.4250395285324134}</t>
   </si>
   <si>
-    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.0004386848973905325, 91.0: 5.201367219170938e-07, 92.0: 9.640759270133481e-11, 202.0: 3.267379999936262e-05, 477.0: 4.37038232433548e-05, 307.0: 4.568668548426226e-08, 207.0: 1.1116985253964605e-06}</t>
+    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.0004386848973905322, 91.0: 5.201367219170938e-07, 92.0: 9.640759270133481e-11, 202.0: 3.267379999936262e-05, 477.0: 4.373819576642562e-05, 307.0: 4.568668548426226e-08, 207.0: 1.077326002325619e-06}</t>
   </si>
   <si>
     <t>{681.0: 0.9923031168232247, 171.0: 0.00432504279801037, 90.0: 0.0007631323849157586, 420.0: 1.849444563393273e-06, 212.0: 0.0026068585492860052}</t>
@@ -2212,7 +2209,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.9971534924458073, 174.0: 0.0014779400691736146, 502.0: 0.00136856748501951}</t>
+    <t>{687.0: 0.9971296091852496, 174.0: 0.0014964765105820598, 502.0: 0.0013739143041673336}</t>
   </si>
   <si>
     <t>{689.0: 0.4093393339333933, 700.0: 0.0008121812181218122, 580.0: 0.5898484848484848}</t>
@@ -2224,10 +2221,10 @@
     <t>{692.0: 0.9486669212930687, 110.0: 0.039490951555331485, 914.0: 0.011842127151599699}</t>
   </si>
   <si>
-    <t>{86.0: 0.9498539270184052, 165.0: 0.03933269293741559, 433.0: 0.008670785344030915, 107.0: 0.002119130409706005, 543.0: 1.5646929313959965e-05, 505.0: 7.817361128107671e-06}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661318, 492.0: 0.017884122003138155, 14.0: 0.0004997967608728882, 178.0: 3.230205000670429e-07, 623.0: 8.137321532264157e-07, 97.0: 4.11281720352593e-06}</t>
+    <t>{86.0: 0.9498539270381408, 165.0: 0.03933269293741559, 433.0: 0.008670785344030915, 107.0: 0.0021191417002663538, 543.0: 1.5635619018833773e-05, 505.0: 7.817361128107671e-06}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063286, 492.0: 0.01785610337176307, 14.0: 0.0004997993859138207, 178.0: 3.228119652057989e-07, 623.0: 8.132068258195553e-07, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2242,7 +2239,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 0.9618681096678863, 481.0: 0.012221958191459804, 477.0: 0.005093562077699728, 538.0: 0.0012338062924120913, 906.0: 0.019582563770542093}</t>
+    <t>{704.0: 0.9618681096678863, 481.0: 0.012221958191459797, 477.0: 0.005093562077699728, 538.0: 0.0012338062924120913, 906.0: 0.019582563770542093}</t>
   </si>
   <si>
     <t>{707.0: 1.0}</t>
@@ -2257,10 +2254,10 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 0.21340928089644, 73.0: 0.10923109066691225, 888.0: 0.6773596284366478}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851532, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{734.0: 0.21356923288861746, 73.0: 0.10920609816813451, 888.0: 0.6772246689432481}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192108, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 0.709057395905222, 228.0: 0.29094260409477785}</t>
@@ -2269,13 +2266,13 @@
     <t>{739.0: 0.9994516792323511, 831.0: 0.0005483207676490747}</t>
   </si>
   <si>
-    <t>{740.0: 0.45383207699236716, 789.0: 0.4981938366246102, 246.0: 0.03031912813640829, 681.0: 0.017519070095499373, 171.0: 7.635845001369348e-05, 90.0: 1.3473070392327e-05, 420.0: 3.265186654613626e-08, 212.0: 4.6023978842474255e-05}</t>
+    <t>{740.0: 0.45383207699236716, 789.0: 0.4982278567241085, 246.0: 0.03028510803691015, 681.0: 0.017519070095499373, 171.0: 7.635845001369348e-05, 90.0: 1.3473070392327e-05, 420.0: 3.265186654613626e-08, 212.0: 4.6023978842474255e-05}</t>
   </si>
   <si>
     <t>{741.0: 0.8859583153113909, 90.0: 0.0927559836204274, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
   </si>
   <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.3853415807950608, 758.0: 0.0038126361655773404}</t>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.3853415807950608, 758.0: 0.0038126361655773404}</t>
   </si>
   <si>
     <t>{743.0: 0.9994769518487787, 145.0: 0.00022416349338054986, 544.0: 0.000298505923321822, 975.0: 3.787345189111719e-07}</t>
@@ -2284,7 +2281,7 @@
     <t>{746.0: 0.9899854627685348, 691.0: 0.01001453723146503}</t>
   </si>
   <si>
-    <t>{298.0: 0.5919182181656845, 476.0: 0.22422732981498728, 534.0: 0.18289150901431145, 297.0: 0.0009629430050168127}</t>
+    <t>{298.0: 0.5919183197205257, 476.0: 0.22422732981498728, 534.0: 0.18289150901431145, 297.0: 0.0009628414501755321}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2293,7 +2290,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{758.0: 0.9991689750692523, 583.0: 0.0005095708829251114, 742.0: 0.0003214540478228109}</t>
+    <t>{758.0: 0.9991689750692523, 583.0: 0.0005095708829251116, 742.0: 0.0003214540478228109}</t>
   </si>
   <si>
     <t>{759.0: 0.99842555105713, 226.0: 0.0015744489428699952}</t>
@@ -2311,25 +2308,25 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571429, 992.0: 0.019642857142857146}</t>
-  </si>
-  <si>
-    <t>{772.0: 0.9872276603169209, 493.0: 0.01255050880014011, 108.0: 0.00021915091102318846, 144.0: 2.6799719160657585e-06}</t>
+    <t>{770.0: 0.9801712483100499, 992.0: 0.019828751689950425}</t>
+  </si>
+  <si>
+    <t>{772.0: 0.9872276603169207, 493.0: 0.01255050880014012, 108.0: 0.00021915091102318846, 144.0: 2.6799719160657585e-06}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9748082592125863, 171.0: 0.019238165421154786, 184.0: 0.002458085790359677, 593.0: 0.001521981335728533, 420.0: 0.0019731835966043188, 212.0: 3.1761157579610095e-07, 681.0: 7.031990608031756e-09}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9989279297523233, 81.0: 0.00034909044494929776, 172.0: 5.110236994390215e-07, 435.0: 0.0007224687790277634}</t>
+    <t>{778.0: 0.9753594977972543, 171.0: 0.018743715381244096, 184.0: 0.0024402799418704003, 593.0: 0.001482998639460586, 420.0: 0.0019731835966043188, 212.0: 3.176115757961011e-07, 681.0: 7.031990608031756e-09}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9989279297523233, 81.0: 0.0003490900273780446, 172.0: 5.114412706920357e-07, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.20471452899524964}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -2344,16 +2341,16 @@
     <t>{834.0: 0.9681697612732096, 210.0: 0.03162121602224349, 82.0: 4.572371661964563e-05, 788.0: 0.0001632989879273059}</t>
   </si>
   <si>
-    <t>{835.0: 0.9830399431369468, 836.0: 0.011920702428051403, 756.0: 0.005039354435002382}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7389052193807433, 486.0: 0.11354267420417084, 604.0: 0.1115397282783606, 980.0: 0.01844485800684812, 840.0: 0.016429609884430787, 303.0: 0.001135289338930724, 144.0: 2.620906515422988e-06}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.987112614188104, 423.0: 0.012887385811895666}</t>
+    <t>{835.0: 0.9827025729172753, 836.0: 0.012258072647722114, 756.0: 0.005039354435002382}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952598, 835.0: 0.007748404740200545}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.7389052193807433, 486.0: 0.11354267420417084, 604.0: 0.1115397282783606, 980.0: 0.01844485800684812, 840.0: 0.016429609884430787, 303.0: 0.0011352782248321624, 144.0: 2.632020613984921e-06}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.9871126141881047, 423.0: 0.012887385811895666}</t>
   </si>
   <si>
     <t>{841.0: 1.0}</t>
@@ -2362,34 +2359,37 @@
     <t>{842.0: 0.9956627812415285, 606.0: 0.00433721875847113}</t>
   </si>
   <si>
-    <t>{227.0: 0.9322033898305082, 686.0: 0.06779661016949153}</t>
+    <t>{227.0: 0.9322033898305084, 686.0: 0.06779661016949153}</t>
   </si>
   <si>
     <t>{846.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.8022190532860047, 707.0: 0.004568879278325606, 634.0: 0.1932120674356699}</t>
-  </si>
-  <si>
-    <t>{849.0: 0.9978937514626726, 315.0: 0.0020908393116313654, 217.0: 1.5409225696039546e-05}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076417, 277.0: 0.09749670619235838}</t>
+    <t>{848.0: 0.8022190532860042, 707.0: 0.00456887927832561, 634.0: 0.1932120674356699}</t>
+  </si>
+  <si>
+    <t>{849.0: 0.9978937514626726, 315.0: 0.0020908393116313663, 217.0: 1.5409225696039546e-05}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.902503293807642, 277.0: 0.09749670619235838}</t>
   </si>
   <si>
     <t>{851.0: 0.2959642512983743, 7.0: 0.5888157159476503, 229.0: 0.11522003275397538}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290925, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.815322743229628, 91.0: 0.00096670594654728, 92.0: 1.7917941423782725e-07, 202.0: 0.06072625797167796, 680.0: 0.0019916987452363753, 477.0: 0.10462810023960326, 307.0: 8.491150244668037e-05, 207.0: 0.004399820531246505, 481.0: 9.553229021684541e-06, 574.0: 0.011794902656664424, 906.0: 7.512676851378614e-05}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455604, 976.0: 0.002654440154440155}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9947818696254722, 298.0: 0.005218130374527884}</t>
+    <t>{852.0: 0.9898358092259586, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8153227432296275, 91.0: 0.00096670594654728, 92.0: 1.7917941423782725e-07, 202.0: 0.06072625797167796, 680.0: 0.0019916987452363753, 477.0: 0.10476413795959924, 307.0: 8.491150244668037e-05, 207.0: 0.0042637828112505214, 481.0: 9.553229021684541e-06, 574.0: 0.011794902656664424, 906.0: 7.512676851378614e-05}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.99733527131783, 976.0: 0.002664728682170542}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9947307303085409, 298.0: 0.005269269691458645}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947866}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360666, 10.0: 0.027726001863932898}</t>
@@ -2401,7 +2401,7 @@
     <t>{886.0: 0.9902604522799239, 531.0: 0.009534025984806517, 262.0: 0.00019460907675969045, 442.0: 1.0912658509889185e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.9928399402803227, 834.0: 0.006610309975199911, 619.0: 0.0005377841363674719, 861.0: 1.1956872267456317e-05, 253.0: 8.735842383070054e-09}</t>
+    <t>{887.0: 0.992852504847461, 834.0: 0.006597766661730991, 619.0: 0.000537728739145359, 861.0: 1.1990990892844979e-05, 253.0: 8.760769883093081e-09}</t>
   </si>
   <si>
     <t>{889.0: 0.9590857191621839, 565.0: 0.012464778704103075, 494.0: 0.02844950213371266}</t>
@@ -2416,7 +2416,7 @@
     <t>{895.0: 0.8779441895833829, 209.0: 0.014142491692487508, 896.0: 0.06604677512664152, 897.0: 0.039939520048842846, 400.0: 0.0009128006283056072, 432.0: 0.0010142229203395632}</t>
   </si>
   <si>
-    <t>{905.0: 0.9155765224746392, 499.0: 0.06135992033795438, 270.0: 1.585958775157078e-05, 479.0: 1.984712730947427e-07, 942.0: 4.493689202145121e-09, 769.0: 0.023047494634692543}</t>
+    <t>{905.0: 0.9155765224746392, 499.0: 0.06135992033795438, 270.0: 1.585958775157078e-05, 479.0: 1.983824984256506e-07, 942.0: 4.582463871237358e-09, 769.0: 0.023047494634692543}</t>
   </si>
   <si>
     <t>{906.0: 0.9548528279401363, 477.0: 0.037800982895492344, 202.0: 0.001492242297122392, 307.0: 0.0003443049939703535, 680.0: 0.00548082869511441, 481.0: 2.8813178163827512e-05}</t>
@@ -2428,13 +2428,13 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675541, 687.0: 0.0049774716761021975, 174.0: 7.377404671415716e-06, 502.0: 6.8314516723103645e-06}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.8371050838847068, 253.0: 0.0006115995811703315, 490.0: 0.0071431722448936025, 225.0: 0.14979707582625534, 779.0: 0.004742289697704957, 493.0: 0.0005384940251324055, 108.0: 9.40292207013894e-06, 144.0: 1.1498727958407102e-07, 619.0: 5.206537478400955e-05, 887.0: 7.014560029937706e-07}</t>
-  </si>
-  <si>
-    <t>{915.0: 0.5001414069283653, 171.0: 0.2780495897244083, 420.0: 0.2218090033472266}</t>
+    <t>{911.0: 0.9950083194675541, 687.0: 0.0049773524584954265, 174.0: 7.469932665135072e-06, 502.0: 6.858141285361069e-06}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.8370975353923293, 253.0: 0.0006115940661461547, 490.0: 0.0071507295578907394, 225.0: 0.14979707582625534, 779.0: 0.004742289697704957, 493.0: 0.0005384940251324055, 108.0: 9.40292207013894e-06, 144.0: 1.1498727958407102e-07, 619.0: 5.206001152217966e-05, 887.0: 7.035136692186443e-07}</t>
+  </si>
+  <si>
+    <t>{915.0: 0.5079882478723833, 171.0: 0.2735800010264546, 420.0: 0.21843175110116217}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
@@ -2443,28 +2443,28 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9925845578271281, 297.0: 0.005990275426909785, 857.0: 0.001425166745962536}</t>
+    <t>{298.0: 0.9927157970888625, 297.0: 0.005859444871573599, 857.0: 0.0014247580395640635}</t>
   </si>
   <si>
     <t>{921.0: 0.8183024740968304, 686.0: 0.18169752590317012}</t>
   </si>
   <si>
-    <t>{922.0: 0.9315741024854247, 887.0: 0.06836565552205066, 834.0: 6.024199252435389e-05}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.995852708307151, 263.0: 0.004141495125086512, 595.0: 5.796567762552023e-06}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.6029591223004622, 418.0: 0.22677151406745158, 922.0: 0.17018011800462188, 887.0: 8.916705583274729e-05, 834.0: 7.857163176271236e-08}</t>
+    <t>{922.0: 0.9315741024854247, 887.0: 0.06836653174288197, 834.0: 5.936577169307047e-05}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.995852708307151, 263.0: 0.004141495551461485, 595.0: 5.796141387578684e-06}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6029858983494535, 418.0: 0.22676395094056628, 922.0: 0.17016090508251563, 887.0: 8.916819865850078e-05, 834.0: 7.742880600922179e-08}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{932.0: 0.9982325910215623, 108.0: 0.0017460566474922733, 144.0: 2.1352330945336983e-05}</t>
-  </si>
-  <si>
-    <t>{933.0: 0.7424218966100884, 702.0: 0.12412132179101265, 249.0: 0.10310508213310642, 299.0: 0.03035169946579281}</t>
+    <t>{932.0: 0.9982325910215623, 108.0: 0.0017460566474922729, 144.0: 2.1352330945336983e-05}</t>
+  </si>
+  <si>
+    <t>{933.0: 0.7428684917530401, 702.0: 0.12410255844272919, 249.0: 0.10267725033843796, 299.0: 0.03035169946579281}</t>
   </si>
   <si>
     <t>{934.0: 0.9685171068747106, 5.0: 0.03148289312528854}</t>
@@ -2476,25 +2476,25 @@
     <t>{936.0: 0.9836341995635787, 702.0: 0.016365800436421343}</t>
   </si>
   <si>
-    <t>{937.0: 0.9879985585965653, 171.0: 0.003293328528655216, 593.0: 0.0036190543506065156, 85.0: 0.0050890585241730275}</t>
-  </si>
-  <si>
-    <t>{940.0: 0.9864997747918502, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{937.0: 0.9880009426222852, 171.0: 0.0032933364754076174, 593.0: 0.0036166623781342055, 85.0: 0.0050890585241730275}</t>
+  </si>
+  <si>
+    <t>{940.0: 0.9864997747918502, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.730535835668062, 634.0: 0.10812454662003079, 848.0: 0.16042594361443507, 707.0: 0.0009136740974718648}</t>
+    <t>{943.0: 0.7045586858250901, 634.0: 0.1099318387297291, 848.0: 0.1844589262685211, 707.0: 0.001050549176659826}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 0.9930875576036868, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382855, 615.0: 0.045862412761714856}</t>
+    <t>{971.0: 0.9930875576036868, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211057, 615.0: 0.04623115577889449}</t>
   </si>
   <si>
     <t>{973.0: 0.9777202072538861, 565.0: 0.022279792746113983}</t>
@@ -2506,7 +2506,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.9504155918601314, 489.0: 0.04917254413384411, 935.0: 0.0004118640060240265}</t>
+    <t>{782.0: 0.9504155918601314, 489.0: 0.04917437168691644, 935.0: 0.00041003645295171326}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978184, 561.0: 0.013490241102181402}</t>
@@ -2518,7 +2518,7 @@
     <t>{989.0: 0.9567945932898868, 249.0: 0.007603186097031136, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{990.0: 0.9929775280898882, 599.0: 0.007022471910112361}</t>
+    <t>{990.0: 0.9929775280898882, 599.0: 0.007022471910112355}</t>
   </si>
 </sst>
 </file>
@@ -4991,7 +4991,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>616</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5002,7 +5002,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -5013,7 +5013,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -5024,7 +5024,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5035,7 +5035,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5046,7 +5046,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5057,7 +5057,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5068,7 +5068,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5101,7 +5101,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5112,7 +5112,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5134,7 +5134,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5145,7 +5145,7 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5178,7 +5178,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5189,7 +5189,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5200,7 +5200,7 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5222,7 +5222,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5233,7 +5233,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5244,7 +5244,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5255,7 +5255,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5266,7 +5266,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5277,7 +5277,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5288,7 +5288,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5310,7 +5310,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5321,7 +5321,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5332,7 +5332,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5343,7 +5343,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5354,7 +5354,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5365,7 +5365,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5376,7 +5376,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5398,7 +5398,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5420,7 +5420,7 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5431,7 +5431,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5442,7 +5442,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5453,7 +5453,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5464,7 +5464,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5475,7 +5475,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5486,7 +5486,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5508,7 +5508,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5530,7 +5530,7 @@
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5574,7 +5574,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5585,7 +5585,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5596,7 +5596,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5607,7 +5607,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5618,7 +5618,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5629,7 +5629,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5640,7 +5640,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5651,7 +5651,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5673,7 +5673,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5706,7 +5706,7 @@
         <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5728,7 +5728,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5739,7 +5739,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5750,7 +5750,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5761,7 +5761,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5772,7 +5772,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5783,7 +5783,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5805,7 +5805,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5816,7 +5816,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5827,7 +5827,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5838,7 +5838,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5849,7 +5849,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5871,7 +5871,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5882,7 +5882,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5893,7 +5893,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5904,7 +5904,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5915,7 +5915,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5926,7 +5926,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5937,7 +5937,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5948,7 +5948,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5959,7 +5959,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5970,7 +5970,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5981,7 +5981,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5992,7 +5992,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -6003,7 +6003,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -6014,7 +6014,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -6025,7 +6025,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6047,7 +6047,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6058,7 +6058,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6080,7 +6080,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6102,7 +6102,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6113,7 +6113,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6135,7 +6135,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6146,7 +6146,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6168,7 +6168,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6179,7 +6179,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6190,7 +6190,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6201,7 +6201,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6212,7 +6212,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6234,7 +6234,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6245,7 +6245,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6256,7 +6256,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -6267,7 +6267,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6278,7 +6278,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6289,7 +6289,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6300,7 +6300,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6322,7 +6322,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6333,7 +6333,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6344,7 +6344,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6355,7 +6355,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6366,7 +6366,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6388,7 +6388,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -6399,7 +6399,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6410,7 +6410,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6421,7 +6421,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6443,7 +6443,7 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6476,7 +6476,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6487,7 +6487,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6498,7 +6498,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6553,7 +6553,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6564,7 +6564,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6575,7 +6575,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6586,7 +6586,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6597,7 +6597,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6608,7 +6608,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6619,7 +6619,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6630,7 +6630,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6641,7 +6641,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6652,7 +6652,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6663,7 +6663,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6674,7 +6674,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6685,7 +6685,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6696,7 +6696,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6707,7 +6707,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6729,7 +6729,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6740,7 +6740,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6751,7 +6751,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6773,7 +6773,7 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6784,7 +6784,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6806,7 +6806,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6817,7 +6817,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6828,7 +6828,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6850,7 +6850,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6861,7 +6861,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6872,7 +6872,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6894,7 +6894,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6905,7 +6905,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6916,7 +6916,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6927,7 +6927,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6938,7 +6938,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6949,7 +6949,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6960,7 +6960,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6971,7 +6971,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -7004,7 +7004,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -7048,7 +7048,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -7059,7 +7059,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7070,7 +7070,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7081,7 +7081,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -7092,7 +7092,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7103,7 +7103,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7114,7 +7114,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7147,7 +7147,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7158,7 +7158,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7180,7 +7180,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7191,7 +7191,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7235,7 +7235,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7246,7 +7246,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7257,7 +7257,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7279,7 +7279,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7301,7 +7301,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7312,7 +7312,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7323,7 +7323,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7334,7 +7334,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7345,7 +7345,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7356,7 +7356,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7367,7 +7367,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7378,7 +7378,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7389,7 +7389,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7400,7 +7400,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7411,7 +7411,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7433,7 +7433,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7444,7 +7444,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7455,7 +7455,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7466,7 +7466,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7477,7 +7477,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7488,7 +7488,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7499,7 +7499,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7510,7 +7510,7 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7543,7 +7543,7 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7554,7 +7554,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>579</v>
+        <v>791</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -8203,7 +8203,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
